--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3862.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3862.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.075119741955891</v>
+        <v>3.931133031845093</v>
       </c>
       <c r="B1">
-        <v>3.671355278956596</v>
+        <v>5.575462341308594</v>
       </c>
       <c r="C1">
-        <v>3.818971952863023</v>
+        <v>4.579350471496582</v>
       </c>
       <c r="D1">
-        <v>1.745190267179317</v>
+        <v>5.338911533355713</v>
       </c>
       <c r="E1">
-        <v>0.7997377600451793</v>
+        <v>4.508998870849609</v>
       </c>
     </row>
   </sheetData>
